--- a/stimuli_transparent.xlsx
+++ b/stimuli_transparent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hening Wang\Documents\GitHub\huashan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042762B-A68D-469F-BD43-23A64EAC80E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988ABE5A-0DEF-4FBC-B611-18B031FEA0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="155">
   <si>
     <t xml:space="preserve">list </t>
   </si>
@@ -178,316 +178,325 @@
     <t>Aufkleber</t>
   </si>
   <si>
-    <t>Hast du den großen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen großen  Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den  dreieckigen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen orangen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den dreieckigen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen orangen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den runden blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den runden großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen orangen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen orangen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen braunen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen braunen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen braunen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grauen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den runden grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen braunen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den dreieckigen schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den runden schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den runden grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den großen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den diamantförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den braunen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den blauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den sternförmigen grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen runden Aufkleber?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du den großen grünen Aufkleber? </t>
-  </si>
-  <si>
-    <t>Hast du den runden Aufkleber?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du den großen diamantförmigen Aufkleber? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du den großen grauen Aufkleber? </t>
-  </si>
-  <si>
-    <t>Hast du den grauen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den quadratischen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen sternförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du den grauen diamantförmigen Aufkleber? </t>
-  </si>
-  <si>
-    <t>Hast du den herzförmigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den orangen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den schwarzen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den grünen dreieckigen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Hast du den  dreieckigen grünen Aufkleber?</t>
-  </si>
-  <si>
-    <t>Welche Beschreibung würden Sie bevorzugen?</t>
-  </si>
-  <si>
     <t>filler</t>
   </si>
   <si>
     <t>list</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen großen  Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den  dreieckigen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen orangen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den dreieckigen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen orangen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den runden blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den runden großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen orangen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen orangen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen braunen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen braunen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen braunen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den runden grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen braunen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den dreieckigen schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den runden schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den runden grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den diamantförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den braunen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den blauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den sternförmigen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen runden Aufkleber?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauchst du den großen grünen Aufkleber? </t>
+  </si>
+  <si>
+    <t>Brauchst du den runden Aufkleber?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauchst du den großen diamantförmigen Aufkleber? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauchst du den großen grauen Aufkleber? </t>
+  </si>
+  <si>
+    <t>Brauchst du den grauen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den quadratischen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen sternförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brauchst du den grauen diamantförmigen Aufkleber? </t>
+  </si>
+  <si>
+    <t>Brauchst du den herzförmigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den orangen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den schwarzen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den grünen dreieckigen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Brauchst du den  dreieckigen grünen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Welche Frage passt besser?</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Bruachst du den großen Aufkleber?</t>
+  </si>
+  <si>
+    <t>Braucht du den grünen Aufkleber?</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -652,7 +661,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -1816,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB148"/>
+  <dimension ref="A1:AB168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z137" sqref="Z137"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.4" customHeight="1" thickTop="1" thickBottom="1"/>
@@ -1840,8 +1848,9 @@
     <col min="23" max="23" width="18.36328125" style="8" customWidth="1"/>
     <col min="24" max="24" width="53.36328125" style="8" customWidth="1"/>
     <col min="25" max="25" width="55.36328125" style="8" customWidth="1"/>
-    <col min="26" max="27" width="55.36328125" style="17" customWidth="1"/>
-    <col min="28" max="28" width="26.26953125" style="17" customWidth="1"/>
+    <col min="26" max="26" width="55.36328125" style="16" customWidth="1"/>
+    <col min="27" max="27" width="55.36328125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="26.26953125" style="3" customWidth="1"/>
     <col min="29" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
@@ -1922,12 +1931,12 @@
         <v>24</v>
       </c>
       <c r="Z1" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1955,15 +1964,15 @@
       </c>
       <c r="G2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -2009,17 +2018,17 @@
         <v>47</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="17" t="s">
-        <v>149</v>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2046,11 +2055,11 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2058,7 +2067,7 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>29</v>
@@ -2100,17 +2109,17 @@
         <v>47</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z3" s="15"/>
-      <c r="AA3" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>149</v>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2185,17 +2194,17 @@
         <v>47</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z4" s="15"/>
-      <c r="AA4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="17" t="s">
-        <v>149</v>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2226,7 +2235,7 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2234,7 +2243,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>28</v>
@@ -2276,17 +2285,17 @@
         <v>47</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z5" s="15"/>
-      <c r="AA5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="17" t="s">
-        <v>149</v>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2305,19 +2314,19 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>29</v>
@@ -2367,17 +2376,17 @@
         <v>47</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z6" s="15"/>
-      <c r="AA6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="17" t="s">
-        <v>149</v>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2452,17 +2461,17 @@
         <v>47</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z7" s="15"/>
-      <c r="AA7" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="17" t="s">
-        <v>149</v>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2485,23 +2494,23 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>27</v>
@@ -2543,17 +2552,17 @@
         <v>47</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z8" s="15"/>
-      <c r="AA8" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>149</v>
+      <c r="AA8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2580,11 +2589,11 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -2634,17 +2643,17 @@
         <v>47</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="15"/>
-      <c r="AA9" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>149</v>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2719,17 +2728,17 @@
         <v>47</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z10" s="15"/>
-      <c r="AA10" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="17" t="s">
-        <v>149</v>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2752,19 +2761,19 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -2810,17 +2819,17 @@
         <v>47</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z11" s="15"/>
-      <c r="AA11" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="17" t="s">
-        <v>149</v>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2839,7 +2848,7 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -2847,7 +2856,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -2855,7 +2864,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -2901,17 +2910,17 @@
         <v>47</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z12" s="15"/>
-      <c r="AA12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="17" t="s">
-        <v>149</v>
+      <c r="AA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2986,17 +2995,17 @@
         <v>47</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Z13" s="15"/>
-      <c r="AA13" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="17" t="s">
-        <v>149</v>
+      <c r="AA13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3023,19 +3032,19 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>28</v>
@@ -3077,17 +3086,17 @@
         <v>47</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z14" s="15"/>
-      <c r="AA14" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="17" t="s">
-        <v>149</v>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3106,7 +3115,7 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -3118,7 +3127,7 @@
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="J15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>29</v>
@@ -3168,17 +3177,17 @@
         <v>47</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z15" s="15"/>
-      <c r="AA15" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="17" t="s">
-        <v>149</v>
+      <c r="AA15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3253,17 +3262,17 @@
         <v>47</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Z16" s="15"/>
-      <c r="AA16" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="17" t="s">
-        <v>149</v>
+      <c r="AA16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3282,15 +3291,15 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3298,7 +3307,7 @@
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -3344,17 +3353,17 @@
         <v>47</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z17" s="15"/>
-      <c r="AA17" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="17" t="s">
-        <v>149</v>
+      <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3373,7 +3382,7 @@
       </c>
       <c r="E18" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>29</v>
@@ -3435,17 +3444,17 @@
         <v>47</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z18" s="15"/>
-      <c r="AA18" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="17" t="s">
-        <v>149</v>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3520,17 +3529,17 @@
         <v>47</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z19" s="15"/>
-      <c r="AA19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="17" t="s">
-        <v>149</v>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3553,23 +3562,23 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>27</v>
@@ -3611,17 +3620,17 @@
         <v>47</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z20" s="15"/>
-      <c r="AA20" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="17" t="s">
-        <v>149</v>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3644,23 +3653,23 @@
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>29</v>
@@ -3702,17 +3711,17 @@
         <v>47</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z21" s="15"/>
-      <c r="AA21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="17" t="s">
-        <v>149</v>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3787,17 +3796,17 @@
         <v>47</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z22" s="15"/>
-      <c r="AA22" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="17" t="s">
-        <v>149</v>
+      <c r="AA22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3816,7 +3825,7 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -3824,7 +3833,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3836,7 +3845,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>28</v>
@@ -3878,17 +3887,17 @@
         <v>47</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z23" s="15"/>
-      <c r="AA23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="17" t="s">
-        <v>149</v>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3907,15 +3916,15 @@
       </c>
       <c r="E24" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="J24" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>29</v>
@@ -3969,17 +3978,17 @@
         <v>47</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z24" s="15"/>
-      <c r="AA24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="17" t="s">
-        <v>149</v>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4054,17 +4063,17 @@
         <v>47</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Z25" s="15"/>
-      <c r="AA25" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="17" t="s">
-        <v>149</v>
+      <c r="AA25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4087,7 +4096,7 @@
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4095,15 +4104,15 @@
       </c>
       <c r="H26" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>27</v>
@@ -4145,17 +4154,17 @@
         <v>47</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z26" s="15"/>
-      <c r="AA26" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="17" t="s">
-        <v>149</v>
+      <c r="AA26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4182,7 +4191,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4194,7 +4203,7 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>29</v>
@@ -4236,17 +4245,17 @@
         <v>47</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="17" t="s">
-        <v>149</v>
+      <c r="AA27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4321,17 +4330,17 @@
         <v>47</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="17" t="s">
-        <v>149</v>
+      <c r="AA28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4354,7 +4363,7 @@
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4362,11 +4371,11 @@
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4412,17 +4421,17 @@
         <v>47</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z29" s="15"/>
-      <c r="AA29" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="17" t="s">
-        <v>149</v>
+      <c r="AA29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4441,7 +4450,7 @@
       </c>
       <c r="E30" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4449,19 +4458,19 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30" s="13" t="s">
         <v>29</v>
@@ -4503,17 +4512,17 @@
         <v>47</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z30" s="15"/>
-      <c r="AA30" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="17" t="s">
-        <v>149</v>
+      <c r="AA30" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4588,17 +4597,17 @@
         <v>47</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z31" s="15"/>
-      <c r="AA31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="17" t="s">
-        <v>149</v>
+      <c r="AA31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4621,11 +4630,11 @@
       </c>
       <c r="F32" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4633,11 +4642,11 @@
       </c>
       <c r="I32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>41</v>
@@ -4679,17 +4688,17 @@
         <v>47</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z32" s="15"/>
-      <c r="AA32" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="17" t="s">
-        <v>149</v>
+      <c r="AA32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4720,11 +4729,11 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4770,17 +4779,17 @@
         <v>47</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z33" s="15"/>
-      <c r="AA33" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>149</v>
+      <c r="AA33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4855,17 +4864,17 @@
         <v>47</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z34" s="15"/>
-      <c r="AA34" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="17" t="s">
-        <v>149</v>
+      <c r="AA34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4888,11 +4897,11 @@
       </c>
       <c r="F35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4904,7 +4913,7 @@
       </c>
       <c r="J35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>40</v>
@@ -4946,17 +4955,17 @@
         <v>47</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z35" s="15"/>
-      <c r="AA35" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>149</v>
+      <c r="AA35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4983,7 +4992,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -4995,7 +5004,7 @@
       </c>
       <c r="J36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>29</v>
@@ -5037,17 +5046,17 @@
         <v>47</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z36" s="15"/>
-      <c r="AA36" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="17" t="s">
-        <v>149</v>
+      <c r="AA36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5122,17 +5131,17 @@
         <v>47</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z37" s="15"/>
-      <c r="AA37" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>149</v>
+      <c r="AA37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5155,7 +5164,7 @@
       </c>
       <c r="F38" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5167,7 +5176,7 @@
       </c>
       <c r="I38" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5213,17 +5222,17 @@
         <v>47</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z38" s="15"/>
-      <c r="AA38" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="17" t="s">
-        <v>149</v>
+      <c r="AA38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5242,15 +5251,15 @@
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5258,11 +5267,11 @@
       </c>
       <c r="I39" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>29</v>
@@ -5304,17 +5313,17 @@
         <v>47</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z39" s="15"/>
-      <c r="AA39" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="17" t="s">
-        <v>149</v>
+      <c r="AA39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5389,17 +5398,17 @@
         <v>47</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z40" s="15"/>
-      <c r="AA40" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB40" s="17" t="s">
-        <v>149</v>
+      <c r="AA40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5418,23 +5427,23 @@
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5480,17 +5489,17 @@
         <v>47</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z41" s="15"/>
-      <c r="AA41" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="17" t="s">
-        <v>149</v>
+      <c r="AA41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5513,7 +5522,7 @@
       </c>
       <c r="F42" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5521,15 +5530,15 @@
       </c>
       <c r="H42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="13" t="s">
         <v>29</v>
@@ -5571,17 +5580,17 @@
         <v>47</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z42" s="15"/>
-      <c r="AA42" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="17" t="s">
-        <v>149</v>
+      <c r="AA42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5656,17 +5665,17 @@
         <v>47</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z43" s="15"/>
-      <c r="AA43" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="17" t="s">
-        <v>149</v>
+      <c r="AA43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5685,11 +5694,11 @@
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -5697,15 +5706,15 @@
       </c>
       <c r="H44" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="13" t="s">
         <v>40</v>
@@ -5747,17 +5756,17 @@
         <v>47</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z44" s="15"/>
-      <c r="AA44" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="17" t="s">
-        <v>149</v>
+      <c r="AA44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5788,15 +5797,15 @@
       </c>
       <c r="H45" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" s="13" t="s">
         <v>29</v>
@@ -5838,17 +5847,17 @@
         <v>47</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z45" s="15"/>
-      <c r="AA45" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="17" t="s">
-        <v>149</v>
+      <c r="AA45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5923,17 +5932,17 @@
         <v>47</v>
       </c>
       <c r="X46" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="15"/>
-      <c r="AA46" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="17" t="s">
-        <v>149</v>
+      <c r="AA46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5952,23 +5961,23 @@
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -6014,17 +6023,17 @@
         <v>47</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z47" s="15"/>
-      <c r="AA47" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="17" t="s">
-        <v>149</v>
+      <c r="AA47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6047,7 +6056,7 @@
       </c>
       <c r="F48" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6055,7 +6064,7 @@
       </c>
       <c r="H48" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6063,7 +6072,7 @@
       </c>
       <c r="J48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" s="13" t="s">
         <v>29</v>
@@ -6105,17 +6114,17 @@
         <v>47</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Z48" s="15"/>
-      <c r="AA48" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="17" t="s">
-        <v>149</v>
+      <c r="AA48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6190,17 +6199,17 @@
         <v>47</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Z49" s="15"/>
-      <c r="AA49" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="17" t="s">
-        <v>149</v>
+      <c r="AA49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6219,19 +6228,19 @@
       </c>
       <c r="E50" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H50" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6281,17 +6290,17 @@
         <v>47</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z50" s="15"/>
-      <c r="AA50" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="17" t="s">
-        <v>149</v>
+      <c r="AA50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6314,7 +6323,7 @@
       </c>
       <c r="F51" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6322,11 +6331,11 @@
       </c>
       <c r="H51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -6372,17 +6381,17 @@
         <v>47</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Z51" s="15"/>
-      <c r="AA51" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB51" s="17" t="s">
-        <v>149</v>
+      <c r="AA51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6457,17 +6466,17 @@
         <v>47</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z52" s="15"/>
-      <c r="AA52" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB52" s="17" t="s">
-        <v>149</v>
+      <c r="AA52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6486,15 +6495,15 @@
       </c>
       <c r="E53" s="14">
         <f t="shared" ref="E53:I102" ca="1" si="4">RANDBETWEEN(9,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2">
         <f t="shared" ref="G53:J114" ca="1" si="5">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -6502,7 +6511,7 @@
       </c>
       <c r="I53" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6548,17 +6557,17 @@
         <v>47</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z53" s="15"/>
-      <c r="AA53" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="17" t="s">
-        <v>149</v>
+      <c r="AA53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6581,15 +6590,15 @@
       </c>
       <c r="F54" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -6597,7 +6606,7 @@
       </c>
       <c r="J54" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="13" t="s">
         <v>29</v>
@@ -6639,17 +6648,17 @@
         <v>47</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z54" s="15"/>
-      <c r="AA54" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="17" t="s">
-        <v>149</v>
+      <c r="AA54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6724,17 +6733,17 @@
         <v>47</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z55" s="15"/>
-      <c r="AA55" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="17" t="s">
-        <v>149</v>
+      <c r="AA55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6757,7 +6766,7 @@
       </c>
       <c r="F56" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -6765,7 +6774,7 @@
       </c>
       <c r="H56" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I56" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -6773,7 +6782,7 @@
       </c>
       <c r="J56" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K56" s="13" t="s">
         <v>42</v>
@@ -6815,17 +6824,17 @@
         <v>47</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z56" s="15"/>
-      <c r="AA56" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="17" t="s">
-        <v>149</v>
+      <c r="AA56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6856,11 +6865,11 @@
       </c>
       <c r="H57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6906,17 +6915,17 @@
         <v>47</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z57" s="15"/>
-      <c r="AA57" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="17" t="s">
-        <v>149</v>
+      <c r="AA57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -6991,17 +7000,17 @@
         <v>47</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z58" s="15"/>
-      <c r="AA58" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="17" t="s">
-        <v>149</v>
+      <c r="AA58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7032,15 +7041,15 @@
       </c>
       <c r="H59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I59" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" s="13" t="s">
         <v>43</v>
@@ -7082,17 +7091,17 @@
         <v>47</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y59" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z59" s="15"/>
-      <c r="AA59" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB59" s="17" t="s">
-        <v>149</v>
+      <c r="AA59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7111,7 +7120,7 @@
       </c>
       <c r="E60" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -7131,7 +7140,7 @@
       </c>
       <c r="J60" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="13" t="s">
         <v>29</v>
@@ -7173,17 +7182,17 @@
         <v>47</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y60" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z60" s="15"/>
-      <c r="AA60" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="17" t="s">
-        <v>149</v>
+      <c r="AA60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7258,17 +7267,17 @@
         <v>47</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y61" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z61" s="15"/>
-      <c r="AA61" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="17" t="s">
-        <v>149</v>
+      <c r="AA61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7287,11 +7296,11 @@
       </c>
       <c r="E62" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F62" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7299,7 +7308,7 @@
       </c>
       <c r="H62" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7307,7 +7316,7 @@
       </c>
       <c r="J62" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="13" t="s">
         <v>42</v>
@@ -7349,17 +7358,17 @@
         <v>47</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z62" s="15"/>
-      <c r="AA62" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="17" t="s">
-        <v>149</v>
+      <c r="AA62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7382,11 +7391,11 @@
       </c>
       <c r="F63" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H63" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7394,7 +7403,7 @@
       </c>
       <c r="I63" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -7440,17 +7449,17 @@
         <v>47</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z63" s="15"/>
-      <c r="AA63" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="17" t="s">
-        <v>149</v>
+      <c r="AA63" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7525,17 +7534,17 @@
         <v>47</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Z64" s="15"/>
-      <c r="AA64" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB64" s="17" t="s">
-        <v>149</v>
+      <c r="AA64" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7558,7 +7567,7 @@
       </c>
       <c r="F65" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7566,15 +7575,15 @@
       </c>
       <c r="H65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" s="13" t="s">
         <v>42</v>
@@ -7616,17 +7625,17 @@
         <v>47</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y65" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z65" s="15"/>
-      <c r="AA65" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="17" t="s">
-        <v>149</v>
+      <c r="AA65" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7649,11 +7658,11 @@
       </c>
       <c r="F66" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7661,11 +7670,11 @@
       </c>
       <c r="I66" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" s="13" t="s">
         <v>29</v>
@@ -7707,17 +7716,17 @@
         <v>47</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z66" s="15"/>
-      <c r="AA66" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="17" t="s">
-        <v>149</v>
+      <c r="AA66" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7792,17 +7801,17 @@
         <v>47</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y67" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z67" s="15"/>
-      <c r="AA67" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB67" s="17" t="s">
-        <v>149</v>
+      <c r="AA67" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7821,11 +7830,11 @@
       </c>
       <c r="E68" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7837,7 +7846,7 @@
       </c>
       <c r="I68" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -7883,17 +7892,17 @@
         <v>47</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y68" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z68" s="15"/>
-      <c r="AA68" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB68" s="17" t="s">
-        <v>149</v>
+      <c r="AA68" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -7928,11 +7937,11 @@
       </c>
       <c r="I69" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" s="13" t="s">
         <v>29</v>
@@ -7974,17 +7983,17 @@
         <v>47</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y69" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z69" s="15"/>
-      <c r="AA69" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB69" s="17" t="s">
-        <v>149</v>
+      <c r="AA69" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8059,17 +8068,17 @@
         <v>47</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z70" s="15"/>
-      <c r="AA70" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB70" s="17" t="s">
-        <v>149</v>
+      <c r="AA70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8088,19 +8097,19 @@
       </c>
       <c r="E71" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8108,7 +8117,7 @@
       </c>
       <c r="J71" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K71" s="13" t="s">
         <v>42</v>
@@ -8150,17 +8159,17 @@
         <v>47</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z71" s="15"/>
-      <c r="AA71" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB71" s="17" t="s">
-        <v>149</v>
+      <c r="AA71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8187,11 +8196,11 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8199,7 +8208,7 @@
       </c>
       <c r="J72" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="13" t="s">
         <v>29</v>
@@ -8241,17 +8250,17 @@
         <v>47</v>
       </c>
       <c r="X72" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y72" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z72" s="15"/>
-      <c r="AA72" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="17" t="s">
-        <v>149</v>
+      <c r="AA72" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8326,17 +8335,17 @@
         <v>47</v>
       </c>
       <c r="X73" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y73" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Z73" s="15"/>
-      <c r="AA73" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="17" t="s">
-        <v>149</v>
+      <c r="AA73" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8355,19 +8364,19 @@
       </c>
       <c r="E74" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F74" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8417,17 +8426,17 @@
         <v>47</v>
       </c>
       <c r="X74" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y74" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z74" s="15"/>
-      <c r="AA74" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB74" s="17" t="s">
-        <v>149</v>
+      <c r="AA74" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8446,11 +8455,11 @@
       </c>
       <c r="E75" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F75" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8458,15 +8467,15 @@
       </c>
       <c r="H75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I75" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" s="13" t="s">
         <v>29</v>
@@ -8508,17 +8517,17 @@
         <v>47</v>
       </c>
       <c r="X75" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y75" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z75" s="15"/>
-      <c r="AA75" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB75" s="17" t="s">
-        <v>149</v>
+      <c r="AA75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8593,17 +8602,17 @@
         <v>47</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y76" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z76" s="15"/>
-      <c r="AA76" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB76" s="17" t="s">
-        <v>149</v>
+      <c r="AA76" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8622,7 +8631,7 @@
       </c>
       <c r="E77" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F77" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -8630,7 +8639,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H77" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8638,11 +8647,11 @@
       </c>
       <c r="I77" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J77" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77" s="13" t="s">
         <v>43</v>
@@ -8684,17 +8693,17 @@
         <v>47</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y77" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Z77" s="15"/>
-      <c r="AA77" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB77" s="17" t="s">
-        <v>149</v>
+      <c r="AA77" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8721,15 +8730,15 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J78" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -8775,17 +8784,17 @@
         <v>47</v>
       </c>
       <c r="X78" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z78" s="15"/>
-      <c r="AA78" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB78" s="17" t="s">
-        <v>149</v>
+      <c r="AA78" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8860,17 +8869,17 @@
         <v>47</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Z79" s="15"/>
-      <c r="AA79" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB79" s="17" t="s">
-        <v>149</v>
+      <c r="AA79" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8889,7 +8898,7 @@
       </c>
       <c r="E80" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -8901,15 +8910,15 @@
       </c>
       <c r="H80" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K80" s="13" t="s">
         <v>42</v>
@@ -8951,17 +8960,17 @@
         <v>47</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y80" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Z80" s="15"/>
-      <c r="AA80" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB80" s="17" t="s">
-        <v>149</v>
+      <c r="AA80" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -8984,11 +8993,11 @@
       </c>
       <c r="F81" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9042,17 +9051,17 @@
         <v>47</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z81" s="15"/>
-      <c r="AA81" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB81" s="17" t="s">
-        <v>149</v>
+      <c r="AA81" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9127,17 +9136,17 @@
         <v>47</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z82" s="15"/>
-      <c r="AA82" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB82" s="17" t="s">
-        <v>149</v>
+      <c r="AA82" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9160,11 +9169,11 @@
       </c>
       <c r="F83" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9172,7 +9181,7 @@
       </c>
       <c r="I83" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -9218,19 +9227,19 @@
         <v>47</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z83" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z83" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA83" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB83" s="17" t="s">
-        <v>149</v>
+      <c r="AA83" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9249,7 +9258,7 @@
       </c>
       <c r="E84" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -9257,19 +9266,19 @@
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K84" s="13" t="s">
         <v>29</v>
@@ -9311,19 +9320,19 @@
         <v>47</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z84" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z84" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA84" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB84" s="17" t="s">
-        <v>149</v>
+      <c r="AA84" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB84" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9398,19 +9407,19 @@
         <v>47</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y85" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z85" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z85" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA85" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB85" s="17" t="s">
-        <v>149</v>
+      <c r="AA85" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB85" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9437,7 +9446,7 @@
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H86" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9491,19 +9500,19 @@
         <v>47</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y86" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z86" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z86" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA86" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB86" s="17" t="s">
-        <v>149</v>
+      <c r="AA86" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB86" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9530,7 +9539,7 @@
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9538,7 +9547,7 @@
       </c>
       <c r="I87" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -9584,19 +9593,19 @@
         <v>47</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y87" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z87" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z87" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA87" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB87" s="17" t="s">
-        <v>149</v>
+      <c r="AA87" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB87" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9671,19 +9680,19 @@
         <v>47</v>
       </c>
       <c r="X88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y88" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="Y88" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z88" s="18" t="s">
+      <c r="Z88" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA88" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB88" s="17" t="s">
-        <v>149</v>
+      <c r="AA88" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9702,27 +9711,27 @@
       </c>
       <c r="E89" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I89" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K89" s="13" t="s">
         <v>41</v>
@@ -9764,19 +9773,19 @@
         <v>47</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y89" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z89" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z89" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA89" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="17" t="s">
-        <v>149</v>
+      <c r="AA89" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9795,23 +9804,23 @@
       </c>
       <c r="E90" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -9857,19 +9866,19 @@
         <v>47</v>
       </c>
       <c r="X90" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z90" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z90" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA90" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="17" t="s">
-        <v>149</v>
+      <c r="AA90" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9944,19 +9953,19 @@
         <v>47</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z91" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z91" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA91" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB91" s="17" t="s">
-        <v>149</v>
+      <c r="AA91" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -9975,15 +9984,15 @@
       </c>
       <c r="E92" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9991,11 +10000,11 @@
       </c>
       <c r="I92" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K92" s="13" t="s">
         <v>27</v>
@@ -10037,19 +10046,19 @@
         <v>47</v>
       </c>
       <c r="X92" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y92" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z92" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z92" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA92" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="17" t="s">
-        <v>149</v>
+      <c r="AA92" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10068,23 +10077,23 @@
       </c>
       <c r="E93" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F93" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -10130,19 +10139,19 @@
         <v>47</v>
       </c>
       <c r="X93" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z93" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z93" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA93" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB93" s="17" t="s">
-        <v>149</v>
+      <c r="AA93" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10217,19 +10226,19 @@
         <v>47</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y94" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z94" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z94" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA94" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB94" s="17" t="s">
-        <v>149</v>
+      <c r="AA94" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10248,7 +10257,7 @@
       </c>
       <c r="E95" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F95" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -10260,7 +10269,7 @@
       </c>
       <c r="H95" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I95" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -10310,19 +10319,19 @@
         <v>47</v>
       </c>
       <c r="X95" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z95" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z95" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA95" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB95" s="17" t="s">
-        <v>149</v>
+      <c r="AA95" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10341,7 +10350,7 @@
       </c>
       <c r="E96" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -10349,11 +10358,11 @@
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H96" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -10361,7 +10370,7 @@
       </c>
       <c r="J96" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96" s="13" t="s">
         <v>29</v>
@@ -10403,19 +10412,19 @@
         <v>47</v>
       </c>
       <c r="X96" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z96" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z96" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA96" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB96" s="17" t="s">
-        <v>149</v>
+      <c r="AA96" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10490,19 +10499,19 @@
         <v>47</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z97" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z97" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA97" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB97" s="17" t="s">
-        <v>149</v>
+      <c r="AA97" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10525,7 +10534,7 @@
       </c>
       <c r="F98" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -10533,15 +10542,15 @@
       </c>
       <c r="H98" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K98" s="13" t="s">
         <v>27</v>
@@ -10583,19 +10592,19 @@
         <v>47</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z98" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z98" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA98" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB98" s="17" t="s">
-        <v>149</v>
+      <c r="AA98" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10618,15 +10627,15 @@
       </c>
       <c r="F99" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H99" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -10676,19 +10685,19 @@
         <v>47</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z99" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z99" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA99" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB99" s="17" t="s">
-        <v>149</v>
+      <c r="AA99" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10763,19 +10772,19 @@
         <v>47</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Y100" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z100" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z100" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA100" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB100" s="17" t="s">
-        <v>149</v>
+      <c r="AA100" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10798,11 +10807,11 @@
       </c>
       <c r="F101" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -10810,11 +10819,11 @@
       </c>
       <c r="I101" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K101" s="13" t="s">
         <v>28</v>
@@ -10856,19 +10865,19 @@
         <v>47</v>
       </c>
       <c r="X101" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y101" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z101" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z101" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA101" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB101" s="17" t="s">
-        <v>149</v>
+      <c r="AA101" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -10887,7 +10896,7 @@
       </c>
       <c r="E102" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -10895,7 +10904,7 @@
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -10903,11 +10912,11 @@
       </c>
       <c r="I102" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K102" s="13" t="s">
         <v>29</v>
@@ -10949,19 +10958,19 @@
         <v>47</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y102" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z102" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z102" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA102" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB102" s="17" t="s">
-        <v>149</v>
+      <c r="AA102" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11036,19 +11045,19 @@
         <v>47</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y103" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z103" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z103" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA103" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB103" s="17" t="s">
-        <v>149</v>
+      <c r="AA103" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11066,12 +11075,12 @@
         <v>26</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" ref="E104:I147" ca="1" si="8">RANDBETWEEN(9,10)</f>
-        <v>9</v>
+        <f t="shared" ref="E104:I162" ca="1" si="8">RANDBETWEEN(9,10)</f>
+        <v>10</v>
       </c>
       <c r="F104" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -11087,7 +11096,7 @@
       </c>
       <c r="J104" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K104" s="13" t="s">
         <v>43</v>
@@ -11129,19 +11138,19 @@
         <v>47</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y104" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z104" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z104" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA104" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB104" s="17" t="s">
-        <v>149</v>
+      <c r="AA104" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11164,15 +11173,15 @@
       </c>
       <c r="F105" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I105" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -11180,7 +11189,7 @@
       </c>
       <c r="J105" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K105" s="13" t="s">
         <v>29</v>
@@ -11222,19 +11231,19 @@
         <v>47</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y105" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z105" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z105" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA105" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB105" s="17" t="s">
-        <v>149</v>
+      <c r="AA105" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11309,19 +11318,19 @@
         <v>47</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z106" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z106" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA106" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB106" s="17" t="s">
-        <v>149</v>
+      <c r="AA106" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11344,7 +11353,7 @@
       </c>
       <c r="F107" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -11356,7 +11365,7 @@
       </c>
       <c r="I107" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J107" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -11402,19 +11411,19 @@
         <v>47</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y107" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z107" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z107" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA107" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB107" s="17" t="s">
-        <v>149</v>
+      <c r="AA107" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB107" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11445,15 +11454,15 @@
       </c>
       <c r="H108" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J108" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108" s="13" t="s">
         <v>29</v>
@@ -11495,19 +11504,19 @@
         <v>47</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y108" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z108" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z108" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA108" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB108" s="17" t="s">
-        <v>149</v>
+      <c r="AA108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB108" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11582,19 +11591,19 @@
         <v>47</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Y109" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z109" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z109" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA109" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB109" s="17" t="s">
-        <v>149</v>
+      <c r="AA109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB109" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11625,15 +11634,15 @@
       </c>
       <c r="H110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K110" s="13" t="s">
         <v>40</v>
@@ -11675,19 +11684,19 @@
         <v>47</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y110" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z110" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z110" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA110" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB110" s="17" t="s">
-        <v>149</v>
+      <c r="AA110" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB110" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11706,11 +11715,11 @@
       </c>
       <c r="E111" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F111" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -11718,7 +11727,7 @@
       </c>
       <c r="H111" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -11768,19 +11777,19 @@
         <v>47</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y111" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z111" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z111" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA111" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB111" s="17" t="s">
-        <v>149</v>
+      <c r="AA111" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11855,19 +11864,19 @@
         <v>47</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y112" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z112" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z112" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA112" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB112" s="17" t="s">
-        <v>149</v>
+      <c r="AA112" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11886,11 +11895,11 @@
       </c>
       <c r="E113" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F113" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -11902,11 +11911,11 @@
       </c>
       <c r="I113" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J113" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K113" s="13" t="s">
         <v>43</v>
@@ -11948,19 +11957,19 @@
         <v>47</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Y113" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z113" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z113" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA113" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB113" s="17" t="s">
-        <v>149</v>
+      <c r="AA113" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -11987,15 +11996,15 @@
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I114" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -12041,19 +12050,19 @@
         <v>47</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y114" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z114" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z114" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA114" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB114" s="17" t="s">
-        <v>149</v>
+      <c r="AA114" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12061,7 +12070,7 @@
         <v>133</v>
       </c>
       <c r="B115" s="3" t="str">
-        <f t="shared" ref="B115:B145" si="9">"f"&amp;C115&amp;""&amp;D115&amp;""&amp;Z115</f>
+        <f t="shared" ref="B115:B160" si="9">"f"&amp;C115&amp;""&amp;D115&amp;""&amp;Z115</f>
         <v>fzrcfc</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -12128,19 +12137,19 @@
         <v>47</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y115" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z115" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z115" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA115" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB115" s="17" t="s">
-        <v>149</v>
+      <c r="AA115" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="116" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12159,19 +12168,19 @@
       </c>
       <c r="E116" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F116" s="5">
         <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" ref="G116:J147" ca="1" si="10">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <f t="shared" ref="G116:J162" ca="1" si="10">RANDBETWEEN(1,3)</f>
+        <v>2</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -12221,19 +12230,19 @@
         <v>47</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Y116" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z116" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z116" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA116" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB116" s="17" t="s">
-        <v>149</v>
+      <c r="AA116" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12252,7 +12261,7 @@
       </c>
       <c r="E117" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F117" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -12260,19 +12269,19 @@
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J117" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K117" s="13" t="s">
         <v>29</v>
@@ -12314,19 +12323,19 @@
         <v>47</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y117" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z117" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z117" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA117" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB117" s="17" t="s">
-        <v>149</v>
+      <c r="AA117" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12401,19 +12410,19 @@
         <v>47</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Y118" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z118" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z118" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA118" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB118" s="17" t="s">
-        <v>149</v>
+      <c r="AA118" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="119" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12440,15 +12449,15 @@
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -12494,19 +12503,19 @@
         <v>47</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y119" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z119" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z119" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA119" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB119" s="17" t="s">
-        <v>149</v>
+      <c r="AA119" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="120" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12525,19 +12534,19 @@
       </c>
       <c r="E120" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F120" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -12545,7 +12554,7 @@
       </c>
       <c r="J120" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" s="13" t="s">
         <v>29</v>
@@ -12587,19 +12596,19 @@
         <v>47</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y120" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z120" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z120" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA120" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB120" s="17" t="s">
-        <v>149</v>
+      <c r="AA120" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="121" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12674,19 +12683,19 @@
         <v>47</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Y121" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z121" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z121" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA121" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB121" s="17" t="s">
-        <v>149</v>
+      <c r="AA121" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB121" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12709,7 +12718,7 @@
       </c>
       <c r="F122" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -12717,7 +12726,7 @@
       </c>
       <c r="H122" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I122" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -12725,7 +12734,7 @@
       </c>
       <c r="J122" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K122" s="13" t="s">
         <v>40</v>
@@ -12767,19 +12776,19 @@
         <v>47</v>
       </c>
       <c r="X122" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y122" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z122" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z122" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA122" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB122" s="17" t="s">
-        <v>149</v>
+      <c r="AA122" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12798,27 +12807,27 @@
       </c>
       <c r="E123" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H123" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I123" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J123" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K123" s="13" t="s">
         <v>29</v>
@@ -12860,19 +12869,19 @@
         <v>47</v>
       </c>
       <c r="X123" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y123" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z123" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z123" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA123" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB123" s="17" t="s">
-        <v>149</v>
+      <c r="AA123" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12947,19 +12956,19 @@
         <v>47</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y124" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z124" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z124" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA124" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB124" s="17" t="s">
-        <v>149</v>
+      <c r="AA124" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="125" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -12978,15 +12987,15 @@
       </c>
       <c r="E125" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F125" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -12998,7 +13007,7 @@
       </c>
       <c r="J125" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K125" s="13" t="s">
         <v>28</v>
@@ -13040,19 +13049,19 @@
         <v>47</v>
       </c>
       <c r="X125" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y125" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z125" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z125" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA125" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB125" s="17" t="s">
-        <v>149</v>
+      <c r="AA125" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="126" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13075,23 +13084,23 @@
       </c>
       <c r="F126" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H126" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J126" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K126" s="13" t="s">
         <v>29</v>
@@ -13133,19 +13142,19 @@
         <v>47</v>
       </c>
       <c r="X126" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y126" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z126" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z126" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA126" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB126" s="17" t="s">
-        <v>149</v>
+      <c r="AA126" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB126" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13220,19 +13229,19 @@
         <v>47</v>
       </c>
       <c r="X127" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Y127" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z127" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z127" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA127" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB127" s="17" t="s">
-        <v>149</v>
+      <c r="AA127" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB127" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13255,19 +13264,19 @@
       </c>
       <c r="F128" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J128" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13313,19 +13322,19 @@
         <v>47</v>
       </c>
       <c r="X128" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y128" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z128" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z128" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA128" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB128" s="17" t="s">
-        <v>149</v>
+      <c r="AA128" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB128" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13344,11 +13353,11 @@
       </c>
       <c r="E129" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -13360,11 +13369,11 @@
       </c>
       <c r="I129" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J129" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K129" s="13" t="s">
         <v>29</v>
@@ -13406,19 +13415,19 @@
         <v>47</v>
       </c>
       <c r="X129" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y129" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z129" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z129" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA129" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB129" s="17" t="s">
-        <v>149</v>
+      <c r="AA129" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB129" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13493,19 +13502,19 @@
         <v>47</v>
       </c>
       <c r="X130" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Y130" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z130" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z130" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA130" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB130" s="17" t="s">
-        <v>149</v>
+      <c r="AA130" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB130" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13524,15 +13533,15 @@
       </c>
       <c r="E131" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F131" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H131" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -13544,7 +13553,7 @@
       </c>
       <c r="J131" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K131" s="13" t="s">
         <v>41</v>
@@ -13586,19 +13595,19 @@
         <v>47</v>
       </c>
       <c r="X131" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y131" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z131" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z131" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA131" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB131" s="17" t="s">
-        <v>149</v>
+      <c r="AA131" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB131" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13617,23 +13626,23 @@
       </c>
       <c r="E132" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F132" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H132" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I132" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J132" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13679,19 +13688,19 @@
         <v>47</v>
       </c>
       <c r="X132" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y132" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z132" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z132" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA132" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB132" s="17" t="s">
-        <v>149</v>
+      <c r="AA132" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB132" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13766,19 +13775,19 @@
         <v>47</v>
       </c>
       <c r="X133" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z133" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z133" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA133" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB133" s="17" t="s">
-        <v>149</v>
+      <c r="AA133" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB133" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="134" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13801,15 +13810,15 @@
       </c>
       <c r="F134" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H134" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I134" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -13859,19 +13868,19 @@
         <v>47</v>
       </c>
       <c r="X134" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y134" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z134" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z134" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA134" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB134" s="17" t="s">
-        <v>149</v>
+      <c r="AA134" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB134" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -13890,7 +13899,7 @@
       </c>
       <c r="E135" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F135" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -13902,11 +13911,11 @@
       </c>
       <c r="H135" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J135" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13952,19 +13961,19 @@
         <v>47</v>
       </c>
       <c r="X135" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y135" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z135" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z135" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA135" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB135" s="17" t="s">
-        <v>149</v>
+      <c r="AA135" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB135" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14039,19 +14048,19 @@
         <v>47</v>
       </c>
       <c r="X136" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y136" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Y136" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z136" s="18" t="s">
+      <c r="Z136" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA136" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB136" s="17" t="s">
-        <v>149</v>
+      <c r="AA136" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB136" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14074,23 +14083,23 @@
       </c>
       <c r="F137" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H137" s="2">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I137" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K137" s="13" t="s">
         <v>28</v>
@@ -14132,19 +14141,19 @@
         <v>47</v>
       </c>
       <c r="X137" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y137" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z137" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z137" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA137" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB137" s="17" t="s">
-        <v>149</v>
+      <c r="AA137" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB137" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14163,11 +14172,11 @@
       </c>
       <c r="E138" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F138" s="5">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -14175,15 +14184,15 @@
       </c>
       <c r="H138" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K138" s="13" t="s">
         <v>29</v>
@@ -14225,19 +14234,19 @@
         <v>47</v>
       </c>
       <c r="X138" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y138" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z138" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z138" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA138" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB138" s="17" t="s">
-        <v>149</v>
+      <c r="AA138" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB138" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14312,19 +14321,19 @@
         <v>47</v>
       </c>
       <c r="X139" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y139" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z139" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z139" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA139" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB139" s="17" t="s">
-        <v>149</v>
+      <c r="AA139" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB139" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14343,15 +14352,15 @@
       </c>
       <c r="E140" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F140" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H140" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -14363,7 +14372,7 @@
       </c>
       <c r="J140" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K140" s="13" t="s">
         <v>42</v>
@@ -14405,19 +14414,19 @@
         <v>47</v>
       </c>
       <c r="X140" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y140" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z140" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z140" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA140" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB140" s="17" t="s">
-        <v>149</v>
+      <c r="AA140" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB140" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14448,7 +14457,7 @@
       </c>
       <c r="H141" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I141" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -14456,7 +14465,7 @@
       </c>
       <c r="J141" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K141" s="13" t="s">
         <v>29</v>
@@ -14498,19 +14507,19 @@
         <v>47</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y141" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z141" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z141" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA141" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB141" s="17" t="s">
-        <v>149</v>
+      <c r="AA141" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB141" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14585,19 +14594,19 @@
         <v>47</v>
       </c>
       <c r="X142" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y142" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z142" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z142" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA142" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB142" s="17" t="s">
-        <v>149</v>
+      <c r="AA142" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB142" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14624,7 +14633,7 @@
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -14632,7 +14641,7 @@
       </c>
       <c r="I143" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J143" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -14678,19 +14687,19 @@
         <v>47</v>
       </c>
       <c r="X143" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y143" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z143" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z143" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AA143" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB143" s="17" t="s">
-        <v>149</v>
+      <c r="AA143" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB143" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14709,7 +14718,7 @@
       </c>
       <c r="E144" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F144" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -14717,15 +14726,15 @@
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H144" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J144" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -14771,19 +14780,19 @@
         <v>47</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y144" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z144" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z144" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="AA144" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB144" s="17" t="s">
-        <v>149</v>
+      <c r="AA144" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB144" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
@@ -14858,288 +14867,1568 @@
         <v>47</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Y145" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z145" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z145" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="AA145" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB145" s="17" t="s">
-        <v>149</v>
+      <c r="AA145" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB145" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A146" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B146" s="3" t="str">
-        <f>"u"&amp;C146&amp;""&amp;D146</f>
-        <v>uerdc</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>25</v>
+      <c r="A146" s="9">
+        <v>164</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdcs</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E146" s="14">
+        <f t="shared" ref="E146:I147" ca="1" si="11">RANDBETWEEN(9,10)</f>
+        <v>10</v>
+      </c>
+      <c r="F146" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2">
+        <f t="shared" ref="G146:J147" ca="1" si="12">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="H146" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I146" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="J146" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L146" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q146" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R146" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V146" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z146" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A147" s="9">
+        <v>165</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdfs</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="14">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="F147" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="H147" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="I147" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="J147" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K147" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L147" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P147" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q147" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W147" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X147" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y147" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z147" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A148" s="9">
+        <v>166</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrcfs</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K148" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L148" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q148" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R148" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W148" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X148" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y148" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z148" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A149" s="9">
+        <v>167</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdcs</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="14">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F146" s="5">
-        <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
-      </c>
-      <c r="G146" s="2">
+        <v>9</v>
+      </c>
+      <c r="F149" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G149" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H149" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="I149" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J149" s="6">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
-      <c r="H146" s="2">
+      <c r="K149" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q149" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R149" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W149" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X149" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y149" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z149" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A150" s="9">
+        <v>168</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdfs</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F150" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H150" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="I150" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J150" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q150" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X150" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y150" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z150" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A151" s="9">
+        <v>169</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrcfs</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K151" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L151" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P151" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q151" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R151" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V151" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W151" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y151" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z151" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A152" s="9">
+        <v>170</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdcs</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F152" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G152" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H152" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J152" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L152" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q152" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R152" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V152" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W152" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z152" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A153" s="9">
+        <v>171</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdfs</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="F153" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H153" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="I153" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="J153" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="K153" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L153" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P153" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q153" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R153" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X153" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y153" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z153" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A154" s="9">
+        <v>172</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrcfs</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E154" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L154" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P154" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q154" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R154" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V154" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W154" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X154" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y154" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z154" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A155" s="9">
+        <v>173</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdcs</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E155" s="14">
+        <f t="shared" ref="E155:I156" ca="1" si="13">RANDBETWEEN(9,10)</f>
+        <v>9</v>
+      </c>
+      <c r="F155" s="5">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2">
+        <f t="shared" ref="G155:J156" ca="1" si="14">RANDBETWEEN(1,3)</f>
+        <v>3</v>
+      </c>
+      <c r="H155" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="I155" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="J155" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="K155" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L155" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q155" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R155" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V155" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X155" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y155" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z155" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A156" s="9">
+        <v>174</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdfs</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="14">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="F156" s="5">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="G156" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H156" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="I156" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="J156" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="K156" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L156" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P156" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q156" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R156" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T156" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V156" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X156" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y156" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z156" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A157" s="9">
+        <v>175</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrcfs</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K157" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L157" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P157" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q157" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R157" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W157" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X157" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y157" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z157" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A158" s="9">
+        <v>176</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdcs</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="14">
+        <f t="shared" ref="E158:I159" ca="1" si="15">RANDBETWEEN(9,10)</f>
+        <v>10</v>
+      </c>
+      <c r="F158" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2">
+        <f t="shared" ref="G158:J159" ca="1" si="16">RANDBETWEEN(1,3)</f>
+        <v>1</v>
+      </c>
+      <c r="H158" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I158" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="J158" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="K158" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L158" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P158" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q158" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R158" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W158" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X158" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y158" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z158" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A159" s="9">
+        <v>177</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrdfs</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="14">
+        <f t="shared" ca="1" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="F159" s="5">
+        <f t="shared" ca="1" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G159" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I159" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="J159" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L159" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P159" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q159" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R159" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X159" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y159" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z159" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" ht="15.4" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A160" s="9">
+        <v>178</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>fbrcfs</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K160" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L160" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q160" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R160" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S160" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X160" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y160" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z160" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A161" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B161" s="3" t="str">
+        <f>"u"&amp;C161&amp;""&amp;D161</f>
+        <v>uerdc</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E161" s="14">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="F161" s="5">
+        <f ca="1">RANDBETWEEN(1,3)</f>
+        <v>2</v>
+      </c>
+      <c r="G161" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H161" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I161" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J161" s="6">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
-      <c r="I146" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="J146" s="6">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K146" s="13" t="s">
+      <c r="K161" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L161" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M146" s="3" t="s">
+      <c r="M161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N146" s="3" t="s">
+      <c r="N161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O146" s="3" t="s">
+      <c r="O161" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P146" s="4" t="s">
+      <c r="P161" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q146" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R146" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S146" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T146" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U146" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V146" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W146" s="3" t="s">
+      <c r="Q161" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="R161" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="W161" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X146" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y146" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z146" s="15"/>
-      <c r="AA146" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB146" s="17" t="s">
-        <v>149</v>
+      <c r="X161" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z161" s="15"/>
+      <c r="AA161" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB161" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A147" s="2">
+    <row r="162" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A162" s="2">
         <v>1002</v>
       </c>
-      <c r="B147" s="3" t="str">
-        <f>"u"&amp;C147&amp;""&amp;D147</f>
+      <c r="B162" s="3" t="str">
+        <f>"u"&amp;C162&amp;""&amp;D162</f>
         <v>uzrdf</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E147" s="14">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="F147" s="5">
+      <c r="E162" s="14">
         <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
-      <c r="G147" s="2">
+      <c r="F162" s="5">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="G162" s="2">
         <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
-      <c r="H147" s="2">
+      <c r="H162" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="I147" s="2">
+        <v>9</v>
+      </c>
+      <c r="I162" s="2">
         <f t="shared" ca="1" si="8"/>
         <v>10</v>
       </c>
-      <c r="J147" s="6">
+      <c r="J162" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="K147" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L147" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M147" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N147" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O147" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P147" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q147" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L162" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P162" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q162" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="R147" s="7" t="s">
+      <c r="R162" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S147" s="3" t="s">
+      <c r="S162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T147" s="3" t="s">
+      <c r="T162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U147" s="3" t="s">
+      <c r="U162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V147" s="3" t="s">
+      <c r="V162" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W147" s="3" t="s">
+      <c r="W162" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X147" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y147" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z147" s="15"/>
-      <c r="AA147" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB147" s="17" t="s">
+      <c r="X162" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z162" s="15"/>
+      <c r="AA162" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB162" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A163" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B163" s="3" t="str">
+        <f>"u"&amp;C163&amp;""&amp;D163</f>
+        <v>ubrcf</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K163" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L163" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P163" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q163" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R163" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W163" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="X163" s="3" t="s">
         <v>149</v>
       </c>
+      <c r="Y163" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z163" s="15"/>
+      <c r="AA163" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB163" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="148" spans="1:28" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A148" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B148" s="3" t="str">
-        <f>"u"&amp;C148&amp;""&amp;D148</f>
-        <v>ubrcf</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E148" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K148" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="L148" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M148" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N148" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O148" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P148" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q148" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="R148" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="S148" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T148" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="U148" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V148" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W148" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X148" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y148" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z148" s="15"/>
-      <c r="AA148" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB148" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
+    <row r="164" spans="1:28" ht="15.4" customHeight="1"/>
+    <row r="165" spans="1:28" ht="15.4" customHeight="1"/>
+    <row r="166" spans="1:28" ht="15.4" customHeight="1"/>
+    <row r="167" spans="1:28" ht="15.4" customHeight="1"/>
+    <row r="168" spans="1:28" ht="15.4" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/stimuli_transparent.xlsx
+++ b/stimuli_transparent.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SFB833-FS\Documents\GitHub\huashan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hening Wang\Documents\GitHub\huashan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A68C44-06E2-4A42-B2DF-7134C6CC680A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -486,7 +499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -670,7 +683,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
@@ -1827,30 +1840,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.4" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" customWidth="1"/>
-    <col min="18" max="22" width="8.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="53.28515625" style="1" customWidth="1"/>
-    <col min="25" max="27" width="55.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="26.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" customWidth="1"/>
+    <col min="9" max="16" width="8.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.453125" style="1" customWidth="1"/>
+    <col min="18" max="22" width="8.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.26953125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="53.26953125" style="1" customWidth="1"/>
+    <col min="25" max="27" width="55.26953125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="26.26953125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.81640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="13.5" customHeight="1">
@@ -1955,15 +1970,15 @@
       </c>
       <c r="E2" s="7">
         <f t="shared" ref="E2:I51" ca="1" si="1">RANDBETWEEN(9,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:J51" ca="1" si="2">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -1975,7 +1990,7 @@
       </c>
       <c r="J2" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>28</v>
@@ -2046,27 +2061,27 @@
       </c>
       <c r="E3" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>30</v>
@@ -2222,15 +2237,15 @@
       </c>
       <c r="E5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -2242,7 +2257,7 @@
       </c>
       <c r="J5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2313,11 +2328,11 @@
       </c>
       <c r="E6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -2329,7 +2344,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -2489,7 +2504,7 @@
       </c>
       <c r="E8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -2497,19 +2512,19 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>28</v>
@@ -2588,15 +2603,15 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -2756,23 +2771,23 @@
       </c>
       <c r="E11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -2859,15 +2874,15 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>30</v>
@@ -3023,7 +3038,7 @@
       </c>
       <c r="E14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -3031,7 +3046,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -3122,7 +3137,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3134,7 +3149,7 @@
       </c>
       <c r="J15" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>30</v>
@@ -3290,7 +3305,7 @@
       </c>
       <c r="E17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -3306,11 +3321,11 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>28</v>
@@ -3381,23 +3396,23 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -3573,11 +3588,11 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>28</v>
@@ -3652,7 +3667,7 @@
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -3660,15 +3675,15 @@
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>30</v>
@@ -3828,15 +3843,15 @@
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -3844,7 +3859,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>64</v>
@@ -3915,7 +3930,7 @@
       </c>
       <c r="E24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -3931,11 +3946,11 @@
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>30</v>
@@ -4099,11 +4114,11 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4182,7 +4197,7 @@
       </c>
       <c r="E27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -4198,7 +4213,7 @@
       </c>
       <c r="I27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -4358,15 +4373,15 @@
       </c>
       <c r="E29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4453,7 +4468,7 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4461,11 +4476,11 @@
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -4625,7 +4640,7 @@
       </c>
       <c r="E32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -4637,7 +4652,7 @@
       </c>
       <c r="H32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4645,7 +4660,7 @@
       </c>
       <c r="J32" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>74</v>
@@ -4716,15 +4731,15 @@
       </c>
       <c r="E33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -4732,7 +4747,7 @@
       </c>
       <c r="I33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -4896,7 +4911,7 @@
       </c>
       <c r="F35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4904,11 +4919,11 @@
       </c>
       <c r="H35" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -4983,11 +4998,11 @@
       </c>
       <c r="E36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -4995,7 +5010,7 @@
       </c>
       <c r="H36" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5003,7 +5018,7 @@
       </c>
       <c r="J36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>30</v>
@@ -5163,7 +5178,7 @@
       </c>
       <c r="F38" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5171,7 +5186,7 @@
       </c>
       <c r="H38" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5179,7 +5194,7 @@
       </c>
       <c r="J38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>84</v>
@@ -5262,7 +5277,7 @@
       </c>
       <c r="H39" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5430,23 +5445,23 @@
       </c>
       <c r="F41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>84</v>
@@ -5521,7 +5536,7 @@
       </c>
       <c r="F42" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5529,7 +5544,7 @@
       </c>
       <c r="H42" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5537,7 +5552,7 @@
       </c>
       <c r="J42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>30</v>
@@ -5705,7 +5720,7 @@
       </c>
       <c r="H44" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -5784,15 +5799,15 @@
       </c>
       <c r="E45" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -5800,7 +5815,7 @@
       </c>
       <c r="I45" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" ca="1" si="2"/>
@@ -5960,7 +5975,7 @@
       </c>
       <c r="E47" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -5968,19 +5983,19 @@
       </c>
       <c r="G47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>94</v>
@@ -6051,7 +6066,7 @@
       </c>
       <c r="E48" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -6059,7 +6074,7 @@
       </c>
       <c r="G48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" ca="1" si="2"/>
@@ -6067,11 +6082,11 @@
       </c>
       <c r="I48" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>30</v>
@@ -6227,7 +6242,7 @@
       </c>
       <c r="E50" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -6235,19 +6250,19 @@
       </c>
       <c r="G50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>53</v>
@@ -6318,11 +6333,11 @@
       </c>
       <c r="E51" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" ca="1" si="1"/>
@@ -6334,11 +6349,11 @@
       </c>
       <c r="I51" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>30</v>
@@ -6494,15 +6509,15 @@
       </c>
       <c r="E53" s="7">
         <f t="shared" ref="E53:I102" ca="1" si="4">RANDBETWEEN(9,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" ref="G53:J114" ca="1" si="5">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6510,11 +6525,11 @@
       </c>
       <c r="I53" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>29</v>
@@ -6593,7 +6608,7 @@
       </c>
       <c r="G54" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6605,7 +6620,7 @@
       </c>
       <c r="J54" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>30</v>
@@ -6761,15 +6776,15 @@
       </c>
       <c r="E56" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6777,11 +6792,11 @@
       </c>
       <c r="I56" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>29</v>
@@ -6852,11 +6867,11 @@
       </c>
       <c r="E57" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -6868,11 +6883,11 @@
       </c>
       <c r="I57" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>30</v>
@@ -7028,11 +7043,11 @@
       </c>
       <c r="E59" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -7048,7 +7063,7 @@
       </c>
       <c r="J59" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>64</v>
@@ -7119,7 +7134,7 @@
       </c>
       <c r="E60" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -7139,7 +7154,7 @@
       </c>
       <c r="J60" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>30</v>
@@ -7299,15 +7314,15 @@
       </c>
       <c r="F62" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -7315,7 +7330,7 @@
       </c>
       <c r="J62" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>29</v>
@@ -7390,11 +7405,11 @@
       </c>
       <c r="F63" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -7402,11 +7417,11 @@
       </c>
       <c r="I63" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J63" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>30</v>
@@ -7562,23 +7577,23 @@
       </c>
       <c r="E65" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F65" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H65" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -7642,7 +7657,7 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f t="shared" ref="B66:B97" si="6">C66&amp;""&amp;D66</f>
+        <f t="shared" ref="B66:B82" si="6">C66&amp;""&amp;D66</f>
         <v>erdf</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -7653,19 +7668,19 @@
       </c>
       <c r="E66" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -7829,7 +7844,7 @@
       </c>
       <c r="E68" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -7849,7 +7864,7 @@
       </c>
       <c r="J68" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>74</v>
@@ -7928,15 +7943,15 @@
       </c>
       <c r="G69" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8100,11 +8115,11 @@
       </c>
       <c r="F71" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -8112,11 +8127,11 @@
       </c>
       <c r="I71" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J71" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>74</v>
@@ -8187,7 +8202,7 @@
       </c>
       <c r="E72" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -8195,11 +8210,11 @@
       </c>
       <c r="G72" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -8207,7 +8222,7 @@
       </c>
       <c r="J72" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>30</v>
@@ -8367,15 +8382,15 @@
       </c>
       <c r="F74" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -8383,7 +8398,7 @@
       </c>
       <c r="J74" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>29</v>
@@ -8458,19 +8473,19 @@
       </c>
       <c r="F75" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8646,11 +8661,11 @@
       </c>
       <c r="I77" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J77" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>84</v>
@@ -8725,7 +8740,7 @@
       </c>
       <c r="F78" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -8737,7 +8752,7 @@
       </c>
       <c r="I78" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J78" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -8905,7 +8920,7 @@
       </c>
       <c r="G80" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -8917,7 +8932,7 @@
       </c>
       <c r="J80" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>29</v>
@@ -8996,11 +9011,11 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -9168,7 +9183,7 @@
       </c>
       <c r="F83" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -9176,7 +9191,7 @@
       </c>
       <c r="H83" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -9257,27 +9272,27 @@
       </c>
       <c r="E84" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J84" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>30</v>
@@ -9453,7 +9468,7 @@
       </c>
       <c r="I86" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -9530,7 +9545,7 @@
       </c>
       <c r="E87" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -9542,7 +9557,7 @@
       </c>
       <c r="H87" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" ca="1" si="4"/>
@@ -9550,7 +9565,7 @@
       </c>
       <c r="J87" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>30</v>
@@ -9710,7 +9725,7 @@
       </c>
       <c r="E89" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -9722,15 +9737,15 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J89" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>53</v>
@@ -9807,23 +9822,23 @@
       </c>
       <c r="F90" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G90" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J90" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>30</v>
@@ -9983,15 +9998,15 @@
       </c>
       <c r="E92" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -10003,7 +10018,7 @@
       </c>
       <c r="J92" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>53</v>
@@ -10088,11 +10103,11 @@
       </c>
       <c r="H93" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -10272,11 +10287,11 @@
       </c>
       <c r="I95" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J95" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>74</v>
@@ -10361,15 +10376,15 @@
       </c>
       <c r="H96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J96" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>30</v>
@@ -10533,7 +10548,7 @@
       </c>
       <c r="F98" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -10545,11 +10560,11 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>53</v>
@@ -10622,7 +10637,7 @@
       </c>
       <c r="E99" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -10630,15 +10645,15 @@
       </c>
       <c r="G99" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J99" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -10802,7 +10817,7 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -10810,7 +10825,7 @@
       </c>
       <c r="G101" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -10818,11 +10833,11 @@
       </c>
       <c r="I101" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K101" s="4" t="s">
         <v>53</v>
@@ -10895,27 +10910,27 @@
       </c>
       <c r="E102" s="7">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F102" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H102" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J102" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>30</v>
@@ -11075,7 +11090,7 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" ref="E104:I154" ca="1" si="8">RANDBETWEEN(9,10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F104" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -11087,7 +11102,7 @@
       </c>
       <c r="H104" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I104" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -11095,7 +11110,7 @@
       </c>
       <c r="J104" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" s="4" t="s">
         <v>84</v>
@@ -11172,7 +11187,7 @@
       </c>
       <c r="F105" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G105" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -11184,11 +11199,11 @@
       </c>
       <c r="I105" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J105" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>30</v>
@@ -11348,7 +11363,7 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F107" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -11360,11 +11375,11 @@
       </c>
       <c r="H107" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I107" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J107" s="9">
         <f t="shared" ca="1" si="5"/>
@@ -11449,19 +11464,19 @@
       </c>
       <c r="G108" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J108" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>30</v>
@@ -11621,15 +11636,15 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F110" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H110" s="6">
         <f t="shared" ca="1" si="5"/>
@@ -11641,7 +11656,7 @@
       </c>
       <c r="J110" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K110" s="4" t="s">
         <v>64</v>
@@ -11718,23 +11733,23 @@
       </c>
       <c r="F111" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G111" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>30</v>
@@ -11894,7 +11909,7 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F113" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -11906,15 +11921,15 @@
       </c>
       <c r="H113" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I113" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J113" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K113" s="4" t="s">
         <v>74</v>
@@ -12007,7 +12022,7 @@
       </c>
       <c r="J114" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" s="4" t="s">
         <v>30</v>
@@ -12171,11 +12186,11 @@
       </c>
       <c r="F116" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G116" s="6">
         <f t="shared" ref="G116:J159" ca="1" si="10">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -12183,11 +12198,11 @@
       </c>
       <c r="I116" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J116" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>64</v>
@@ -12260,19 +12275,19 @@
       </c>
       <c r="E117" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F117" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -12280,7 +12295,7 @@
       </c>
       <c r="J117" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>30</v>
@@ -12440,15 +12455,15 @@
       </c>
       <c r="E119" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F119" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -12456,11 +12471,11 @@
       </c>
       <c r="I119" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>64</v>
@@ -12533,11 +12548,11 @@
       </c>
       <c r="E120" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F120" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -12545,7 +12560,7 @@
       </c>
       <c r="H120" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -12553,7 +12568,7 @@
       </c>
       <c r="J120" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" s="4" t="s">
         <v>30</v>
@@ -12713,7 +12728,7 @@
       </c>
       <c r="E122" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F122" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -12721,11 +12736,11 @@
       </c>
       <c r="G122" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H122" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I122" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -12733,7 +12748,7 @@
       </c>
       <c r="J122" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K122" s="4" t="s">
         <v>84</v>
@@ -12810,7 +12825,7 @@
       </c>
       <c r="F123" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G123" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -12818,15 +12833,15 @@
       </c>
       <c r="H123" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I123" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J123" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K123" s="4" t="s">
         <v>30</v>
@@ -12990,23 +13005,23 @@
       </c>
       <c r="F125" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G125" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H125" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I125" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J125" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K125" s="4" t="s">
         <v>64</v>
@@ -13079,11 +13094,11 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F126" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G126" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13095,11 +13110,11 @@
       </c>
       <c r="I126" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J126" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>30</v>
@@ -13263,11 +13278,11 @@
       </c>
       <c r="F128" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G128" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13275,7 +13290,7 @@
       </c>
       <c r="I128" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J128" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -13352,7 +13367,7 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F129" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -13360,11 +13375,11 @@
       </c>
       <c r="G129" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -13372,7 +13387,7 @@
       </c>
       <c r="J129" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>30</v>
@@ -13532,7 +13547,7 @@
       </c>
       <c r="E131" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F131" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -13544,15 +13559,15 @@
       </c>
       <c r="H131" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I131" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J131" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" s="4" t="s">
         <v>84</v>
@@ -13629,7 +13644,7 @@
       </c>
       <c r="F132" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G132" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -13805,7 +13820,7 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F134" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -13817,7 +13832,7 @@
       </c>
       <c r="H134" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -13825,7 +13840,7 @@
       </c>
       <c r="J134" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K134" s="4" t="s">
         <v>74</v>
@@ -13898,7 +13913,7 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F135" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -14078,19 +14093,19 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G137" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H137" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -14270,15 +14285,15 @@
       </c>
       <c r="H139" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J139" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>28</v>
@@ -14351,7 +14366,7 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F140" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -14363,7 +14378,7 @@
       </c>
       <c r="H140" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -14371,7 +14386,7 @@
       </c>
       <c r="J140" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>30</v>
@@ -14535,23 +14550,23 @@
       </c>
       <c r="F142" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G142" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J142" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K142" s="4" t="s">
         <v>74</v>
@@ -14624,7 +14639,7 @@
       </c>
       <c r="E143" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F143" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -14644,7 +14659,7 @@
       </c>
       <c r="J143" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>30</v>
@@ -14808,7 +14823,7 @@
       </c>
       <c r="F145" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G145" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -14816,15 +14831,15 @@
       </c>
       <c r="H145" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J145" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K145" s="4" t="s">
         <v>29</v>
@@ -14897,7 +14912,7 @@
       </c>
       <c r="E146" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F146" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -14909,7 +14924,7 @@
       </c>
       <c r="H146" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I146" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -14979,7 +14994,7 @@
         <v>175</v>
       </c>
       <c r="B147" s="2" t="str">
-        <f t="shared" ref="B147:B178" si="11">"f"&amp;C147&amp;""&amp;D147&amp;""&amp;Z147</f>
+        <f t="shared" ref="B147:B157" si="11">"f"&amp;C147&amp;""&amp;D147&amp;""&amp;Z147</f>
         <v>fbrcfs</v>
       </c>
       <c r="C147" s="2" t="s">
@@ -15081,11 +15096,11 @@
       </c>
       <c r="F148" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G148" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H148" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -15093,7 +15108,7 @@
       </c>
       <c r="I148" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J148" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -15174,15 +15189,15 @@
       </c>
       <c r="F149" s="8">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G149" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I149" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -15350,7 +15365,7 @@
       </c>
       <c r="E151" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F151" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -15358,7 +15373,7 @@
       </c>
       <c r="G151" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H151" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -15443,7 +15458,7 @@
       </c>
       <c r="E152" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F152" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -15451,11 +15466,11 @@
       </c>
       <c r="G152" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I152" s="6">
         <f t="shared" ca="1" si="8"/>
@@ -15463,7 +15478,7 @@
       </c>
       <c r="J152" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K152" s="4" t="s">
         <v>30</v>
@@ -15623,7 +15638,7 @@
       </c>
       <c r="E154" s="7">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F154" s="8">
         <f t="shared" ca="1" si="8"/>
@@ -15631,7 +15646,7 @@
       </c>
       <c r="G154" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -15643,7 +15658,7 @@
       </c>
       <c r="J154" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K154" s="4" t="s">
         <v>64</v>
@@ -15716,19 +15731,19 @@
       </c>
       <c r="E155" s="7">
         <f t="shared" ref="E155:I159" ca="1" si="12">RANDBETWEEN(9,10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F155" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G155" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H155" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155" s="6">
         <f t="shared" ca="1" si="12"/>
@@ -15736,7 +15751,7 @@
       </c>
       <c r="J155" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K155" s="4" t="s">
         <v>30</v>
@@ -15896,7 +15911,7 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F157" s="8">
         <f t="shared" ca="1" si="12"/>
@@ -15904,7 +15919,7 @@
       </c>
       <c r="G157" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -15912,11 +15927,11 @@
       </c>
       <c r="I157" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J157" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>84</v>
@@ -15989,15 +16004,15 @@
       </c>
       <c r="E158" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F158" s="8">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G158" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" s="6">
         <f t="shared" ca="1" si="10"/>
@@ -16005,7 +16020,7 @@
       </c>
       <c r="I158" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -16080,7 +16095,7 @@
       </c>
       <c r="E159" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F159" s="8">
         <f t="shared" ca="1" si="12"/>
@@ -16100,7 +16115,7 @@
       </c>
       <c r="J159" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K159" s="4" t="s">
         <v>30</v>
